--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf15-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf15-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Fgfr4</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H2">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I2">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J2">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3341516666666666</v>
+        <v>0.363908</v>
       </c>
       <c r="N2">
-        <v>1.002455</v>
+        <v>1.091724</v>
       </c>
       <c r="O2">
-        <v>0.02354483703663662</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P2">
-        <v>0.03467746452042096</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q2">
-        <v>0.00422022416611111</v>
+        <v>0.006735209264</v>
       </c>
       <c r="R2">
-        <v>0.03798201749499999</v>
+        <v>0.06061688337599999</v>
       </c>
       <c r="S2">
-        <v>0.004741579926231914</v>
+        <v>0.00262719745180612</v>
       </c>
       <c r="T2">
-        <v>0.006983525492522827</v>
+        <v>0.005242280151457824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H3">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I3">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J3">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,25 +623,25 @@
         <v>0.153566</v>
       </c>
       <c r="N3">
-        <v>0.4606979999999999</v>
+        <v>0.460698</v>
       </c>
       <c r="O3">
-        <v>0.01082049501783563</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P3">
-        <v>0.01593671391696275</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q3">
-        <v>0.001939487391333333</v>
+        <v>0.002842199528</v>
       </c>
       <c r="R3">
-        <v>0.017455386522</v>
+        <v>0.025579795752</v>
       </c>
       <c r="S3">
-        <v>0.002179086730930755</v>
+        <v>0.001108654395847463</v>
       </c>
       <c r="T3">
-        <v>0.003209417108353274</v>
+        <v>0.002212196472017027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H4">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I4">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J4">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.6684585</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N4">
-        <v>27.336917</v>
+        <v>0.187586</v>
       </c>
       <c r="O4">
-        <v>0.9631004721145509</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P4">
-        <v>0.9456533902920258</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q4">
-        <v>0.1726280747021667</v>
+        <v>0.001157280562666667</v>
       </c>
       <c r="R4">
-        <v>1.035768448213</v>
+        <v>0.010415525064</v>
       </c>
       <c r="S4">
-        <v>0.193954108003254</v>
+        <v>0.0004514194624231975</v>
       </c>
       <c r="T4">
-        <v>0.1904405252669503</v>
+        <v>0.0009007573017460159</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,51 +726,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H5">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I5">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J5">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03596566666666667</v>
+        <v>31.927516</v>
       </c>
       <c r="N5">
-        <v>0.107897</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O5">
-        <v>0.002534195830976933</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P5">
-        <v>0.003732431270590561</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q5">
-        <v>0.0004542343814444444</v>
+        <v>0.5909144661279999</v>
       </c>
       <c r="R5">
-        <v>0.004088109433</v>
+        <v>3.545486796767999</v>
       </c>
       <c r="S5">
-        <v>0.0005103493416668528</v>
+        <v>0.2304975122220427</v>
       </c>
       <c r="T5">
-        <v>0.0007516561342571342</v>
+        <v>0.3066214233856764</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -776,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05008433333333333</v>
+        <v>0.018508</v>
       </c>
       <c r="H6">
-        <v>0.150253</v>
+        <v>0.055524</v>
       </c>
       <c r="I6">
-        <v>0.7986148759979164</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J6">
-        <v>0.7986148759979165</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3341516666666666</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N6">
-        <v>1.002455</v>
+        <v>0.042347</v>
       </c>
       <c r="O6">
-        <v>0.02354483703663662</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P6">
-        <v>0.03467746452042096</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q6">
-        <v>0.01673576345722222</v>
+        <v>0.0002612527586666667</v>
       </c>
       <c r="R6">
-        <v>0.150621871115</v>
+        <v>0.002351274828</v>
       </c>
       <c r="S6">
-        <v>0.01880325711040471</v>
+        <v>0.0001019066453532521</v>
       </c>
       <c r="T6">
-        <v>0.02769393902789813</v>
+        <v>0.0002033433702783712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H7">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I7">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J7">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.153566</v>
+        <v>0.363908</v>
       </c>
       <c r="N7">
-        <v>0.4606979999999999</v>
+        <v>1.091724</v>
       </c>
       <c r="O7">
-        <v>0.01082049501783563</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P7">
-        <v>0.01593671391696275</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q7">
-        <v>0.007691250732666666</v>
+        <v>0.021951294468</v>
       </c>
       <c r="R7">
-        <v>0.069221256594</v>
+        <v>0.131707766808</v>
       </c>
       <c r="S7">
-        <v>0.008641408286904875</v>
+        <v>0.008562523097600873</v>
       </c>
       <c r="T7">
-        <v>0.01272729680860948</v>
+        <v>0.01139037464938</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,49 +909,49 @@
         <v>1</v>
       </c>
       <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.060321</v>
+      </c>
+      <c r="H8">
+        <v>0.120642</v>
+      </c>
+      <c r="I8">
+        <v>0.7652133098225272</v>
+      </c>
+      <c r="J8">
+        <v>0.6848199993188243</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G8">
-        <v>0.05008433333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.150253</v>
-      </c>
-      <c r="I8">
-        <v>0.7986148759979164</v>
-      </c>
-      <c r="J8">
-        <v>0.7986148759979165</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>13.6684585</v>
+        <v>0.153566</v>
       </c>
       <c r="N8">
-        <v>27.336917</v>
+        <v>0.460698</v>
       </c>
       <c r="O8">
-        <v>0.9631004721145509</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P8">
-        <v>0.9456533902920258</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q8">
-        <v>0.6845756316668333</v>
+        <v>0.009263254686</v>
       </c>
       <c r="R8">
-        <v>4.107453790001</v>
+        <v>0.055579528116</v>
       </c>
       <c r="S8">
-        <v>0.7691463641112968</v>
+        <v>0.003613310017933587</v>
       </c>
       <c r="T8">
-        <v>0.7552128650250755</v>
+        <v>0.004806638692764898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,25 +965,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H9">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I9">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J9">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +992,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03596566666666667</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N9">
-        <v>0.107897</v>
+        <v>0.187586</v>
       </c>
       <c r="O9">
-        <v>0.002534195830976933</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P9">
-        <v>0.003732431270590561</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q9">
-        <v>0.001801316437888889</v>
+        <v>0.003771791702</v>
       </c>
       <c r="R9">
-        <v>0.016211847941</v>
+        <v>0.022630750212</v>
       </c>
       <c r="S9">
-        <v>0.00202384648931008</v>
+        <v>0.001471259638687578</v>
       </c>
       <c r="T9">
-        <v>0.002980775136333426</v>
+        <v>0.001957156588092408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.060321</v>
+      </c>
+      <c r="H10">
+        <v>0.120642</v>
+      </c>
+      <c r="I10">
+        <v>0.7652133098225272</v>
+      </c>
+      <c r="J10">
+        <v>0.6848199993188243</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>31.927516</v>
+      </c>
+      <c r="N10">
+        <v>63.85503199999999</v>
+      </c>
+      <c r="O10">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="P10">
+        <v>0.9728454303033116</v>
+      </c>
+      <c r="Q10">
+        <v>1.925899692636</v>
+      </c>
+      <c r="R10">
+        <v>7.703598770544</v>
+      </c>
+      <c r="S10">
+        <v>0.7512340844362351</v>
+      </c>
+      <c r="T10">
+        <v>0.6662240069176352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.060321</v>
+      </c>
+      <c r="H11">
+        <v>0.120642</v>
+      </c>
+      <c r="I11">
+        <v>0.7652133098225272</v>
+      </c>
+      <c r="J11">
+        <v>0.6848199993188243</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.042347</v>
+      </c>
+      <c r="O11">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="P11">
+        <v>0.0006451658412300904</v>
+      </c>
+      <c r="Q11">
+        <v>0.000851471129</v>
+      </c>
+      <c r="R11">
+        <v>0.005108826774000001</v>
+      </c>
+      <c r="S11">
+        <v>0.0003321326320701058</v>
+      </c>
+      <c r="T11">
+        <v>0.0004418224709517192</v>
       </c>
     </row>
   </sheetData>
